--- a/Code/Results/Cases/Case_8_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.6879597295946</v>
+        <v>22.40608789660474</v>
       </c>
       <c r="C2">
-        <v>17.74464377454696</v>
+        <v>18.53331370852546</v>
       </c>
       <c r="D2">
-        <v>4.99282078295148</v>
+        <v>4.527784012266324</v>
       </c>
       <c r="E2">
-        <v>7.204491832900866</v>
+        <v>7.630976530201431</v>
       </c>
       <c r="F2">
-        <v>34.89265151872719</v>
+        <v>31.80960404045248</v>
       </c>
       <c r="G2">
-        <v>2.100867661091287</v>
+        <v>3.479468853842967</v>
       </c>
       <c r="H2">
-        <v>2.365655614285898</v>
+        <v>2.112031041277454</v>
       </c>
       <c r="I2">
-        <v>2.97054858766576</v>
+        <v>2.685053163381788</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.31275121080937</v>
+        <v>20.81195548609194</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.01268776877858</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.02960249816647</v>
       </c>
       <c r="N2">
-        <v>6.781804198721003</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.17935036586993</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.73535885521794</v>
+        <v>7.018079155997579</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.7021853763232</v>
+      </c>
+      <c r="R2">
+        <v>13.11747768934252</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.18310834304526</v>
+        <v>20.99432839328559</v>
       </c>
       <c r="C3">
-        <v>16.50726035927579</v>
+        <v>17.28630190013931</v>
       </c>
       <c r="D3">
-        <v>4.99013510515623</v>
+        <v>4.493815122089707</v>
       </c>
       <c r="E3">
-        <v>6.897936463398584</v>
+        <v>7.422368775076864</v>
       </c>
       <c r="F3">
-        <v>33.40925544878867</v>
+        <v>30.4763708306148</v>
       </c>
       <c r="G3">
-        <v>2.108103698043956</v>
+        <v>4.326124056703991</v>
       </c>
       <c r="H3">
-        <v>2.656046324827031</v>
+        <v>2.342048031181508</v>
       </c>
       <c r="I3">
-        <v>3.236708685613353</v>
+        <v>2.88288740752234</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.73934519059597</v>
+        <v>20.3752346136641</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.85235247098974</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.52146069065536</v>
       </c>
       <c r="N3">
-        <v>6.563918602934361</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.49269502946208</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.8658339873122</v>
+        <v>6.81958830230055</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.04096800200258</v>
+      </c>
+      <c r="R3">
+        <v>13.24757785364554</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.20748998271358</v>
+        <v>20.07473679041953</v>
       </c>
       <c r="C4">
-        <v>15.70823004954826</v>
+        <v>16.47900301053911</v>
       </c>
       <c r="D4">
-        <v>4.987253430226557</v>
+        <v>4.471181170267851</v>
       </c>
       <c r="E4">
-        <v>6.704455953967388</v>
+        <v>7.290940746902439</v>
       </c>
       <c r="F4">
-        <v>32.47596637905932</v>
+        <v>29.62976594896753</v>
       </c>
       <c r="G4">
-        <v>2.112679847809972</v>
+        <v>4.862809767277306</v>
       </c>
       <c r="H4">
-        <v>2.839826128175427</v>
+        <v>2.487965988051028</v>
       </c>
       <c r="I4">
-        <v>3.405904217212557</v>
+        <v>3.009424757338814</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.38328303986566</v>
+        <v>20.10091934916075</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.74497535339862</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.21886835566876</v>
       </c>
       <c r="N4">
-        <v>6.426506028454083</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>13.05418586107905</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.94621241981546</v>
+        <v>6.694936695852599</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.61711284199604</v>
+      </c>
+      <c r="R4">
+        <v>13.3275471241596</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.78860686876341</v>
+        <v>19.67876747972398</v>
       </c>
       <c r="C5">
-        <v>15.37675554393537</v>
+        <v>16.14342969030161</v>
       </c>
       <c r="D5">
-        <v>4.984484618575285</v>
+        <v>4.460714722963555</v>
       </c>
       <c r="E5">
-        <v>6.62394558943827</v>
+        <v>7.23639685743946</v>
       </c>
       <c r="F5">
-        <v>32.07329822671213</v>
+        <v>29.26175267852524</v>
       </c>
       <c r="G5">
-        <v>2.114592379027787</v>
+        <v>5.08739029508748</v>
       </c>
       <c r="H5">
-        <v>2.916699440268686</v>
+        <v>2.549090637264675</v>
       </c>
       <c r="I5">
-        <v>3.479258907986796</v>
+        <v>3.065709144750979</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.22475031433167</v>
+        <v>19.97609737247966</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.68958588353011</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.09018393755012</v>
       </c>
       <c r="N5">
-        <v>6.369947380981094</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.86867320904349</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.97662385292287</v>
+        <v>6.643799741638566</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.43745292932112</v>
+      </c>
+      <c r="R5">
+        <v>13.35847053419763</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.70798696731194</v>
+        <v>19.60246532000006</v>
       </c>
       <c r="C6">
-        <v>15.32613675351679</v>
+        <v>16.09186430862333</v>
       </c>
       <c r="D6">
-        <v>4.982435800172831</v>
+        <v>4.457985592908676</v>
       </c>
       <c r="E6">
-        <v>6.610121100109476</v>
+        <v>7.227126707600874</v>
       </c>
       <c r="F6">
-        <v>31.98517967965345</v>
+        <v>29.18029437265264</v>
       </c>
       <c r="G6">
-        <v>2.114928172309576</v>
+        <v>5.126837547995838</v>
       </c>
       <c r="H6">
-        <v>2.930241603141757</v>
+        <v>2.559875729146268</v>
       </c>
       <c r="I6">
-        <v>3.495272083225117</v>
+        <v>3.079555124310035</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.18303211514541</v>
+        <v>19.94115726780498</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.66881073651762</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.05901431808204</v>
       </c>
       <c r="N6">
-        <v>6.360894942281773</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.83428571753105</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.97872709818552</v>
+        <v>6.635660333700137</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.40419210096333</v>
+      </c>
+      <c r="R6">
+        <v>13.3615400202263</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.17441544567981</v>
+        <v>20.00466910089202</v>
       </c>
       <c r="C7">
-        <v>15.71716130878831</v>
+        <v>16.4212815610687</v>
       </c>
       <c r="D7">
-        <v>4.982947802931188</v>
+        <v>4.46368483974854</v>
       </c>
       <c r="E7">
-        <v>6.702372388454108</v>
+        <v>7.281667730786581</v>
       </c>
       <c r="F7">
-        <v>32.41414180494917</v>
+        <v>29.46091064860691</v>
       </c>
       <c r="G7">
-        <v>2.112749018679613</v>
+        <v>4.931810130014433</v>
       </c>
       <c r="H7">
-        <v>2.842723034376172</v>
+        <v>2.493072546949331</v>
       </c>
       <c r="I7">
-        <v>3.416878454208808</v>
+        <v>3.02488668735469</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.33956908844416</v>
+        <v>20.0034892536046</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.66730119000754</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.14866116186236</v>
       </c>
       <c r="N7">
-        <v>6.426810952026098</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13.0427185609331</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.93861020482665</v>
+        <v>6.69259408248879</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.58995023326628</v>
+      </c>
+      <c r="R7">
+        <v>13.31422427810662</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.14609873967673</v>
+        <v>21.77919758558715</v>
       </c>
       <c r="C8">
-        <v>17.34222784658242</v>
+        <v>17.92459312804693</v>
       </c>
       <c r="D8">
-        <v>4.986614550226614</v>
+        <v>4.499378059130371</v>
       </c>
       <c r="E8">
-        <v>7.098587069121189</v>
+        <v>7.532793997796549</v>
       </c>
       <c r="F8">
-        <v>34.31513808245404</v>
+        <v>30.94171282051462</v>
       </c>
       <c r="G8">
-        <v>2.103391242919364</v>
+        <v>4.122424393465245</v>
       </c>
       <c r="H8">
-        <v>2.467049156051762</v>
+        <v>2.201210190747215</v>
       </c>
       <c r="I8">
-        <v>3.074262125395035</v>
+        <v>2.777058371490382</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.06249514733894</v>
+        <v>20.42909347922345</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.77716392486291</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.67926351156833</v>
       </c>
       <c r="N8">
-        <v>6.708834437297741</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>13.93494181719256</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.76991597662724</v>
+        <v>6.942986957405965</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.41643567020313</v>
+      </c>
+      <c r="R8">
+        <v>13.13037386309574</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.64509265649187</v>
+        <v>25.02413281737941</v>
       </c>
       <c r="C9">
-        <v>20.20121887232392</v>
+        <v>20.76593005727443</v>
       </c>
       <c r="D9">
-        <v>4.991217017435835</v>
+        <v>4.575709608433029</v>
       </c>
       <c r="E9">
-        <v>7.837530711629569</v>
+        <v>8.02913022829204</v>
       </c>
       <c r="F9">
-        <v>37.94276098914914</v>
+        <v>34.10651802328168</v>
       </c>
       <c r="G9">
-        <v>2.085973928160496</v>
+        <v>2.407555342638693</v>
       </c>
       <c r="H9">
-        <v>1.768830392513059</v>
+        <v>1.652518682151933</v>
       </c>
       <c r="I9">
-        <v>2.526010912390006</v>
+        <v>2.65908555362513</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.51551362642562</v>
+        <v>21.48842713889857</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.14165767641573</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.97991342638873</v>
       </c>
       <c r="N9">
-        <v>7.230039411029998</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.55958253348483</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.45467194165647</v>
+        <v>7.418430227866497</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.96396164834807</v>
+      </c>
+      <c r="R9">
+        <v>12.80808545750108</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.87033988666646</v>
+        <v>26.92471700104707</v>
       </c>
       <c r="C10">
-        <v>22.13499359272279</v>
+        <v>22.37083664059151</v>
       </c>
       <c r="D10">
-        <v>4.967470482887089</v>
+        <v>4.60133206039012</v>
       </c>
       <c r="E10">
-        <v>8.40478807734781</v>
+        <v>8.383728051277968</v>
       </c>
       <c r="F10">
-        <v>40.22164739316123</v>
+        <v>35.53235829881488</v>
       </c>
       <c r="G10">
-        <v>2.073954463483231</v>
+        <v>3.758757118986773</v>
       </c>
       <c r="H10">
-        <v>1.824410904658216</v>
+        <v>1.821261020789876</v>
       </c>
       <c r="I10">
-        <v>2.953773536997008</v>
+        <v>2.960792563508285</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.36758365134053</v>
+        <v>21.78151411420983</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.03753198665701</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.59839000090294</v>
       </c>
       <c r="N10">
-        <v>7.491651101430345</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.54480434222946</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>13.18373427577869</v>
+        <v>7.634775109047698</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.81721876128107</v>
+      </c>
+      <c r="R10">
+        <v>12.51629565618079</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.08316329265806</v>
+        <v>26.84536925188175</v>
       </c>
       <c r="C11">
-        <v>23.06193934468546</v>
+        <v>22.60890015252312</v>
       </c>
       <c r="D11">
-        <v>4.812895202412509</v>
+        <v>4.610869262064366</v>
       </c>
       <c r="E11">
-        <v>9.187475666153372</v>
+        <v>8.97816647303569</v>
       </c>
       <c r="F11">
-        <v>39.19938243005915</v>
+        <v>33.51138499512436</v>
       </c>
       <c r="G11">
-        <v>2.070428504028437</v>
+        <v>7.748747186745121</v>
       </c>
       <c r="H11">
-        <v>2.7909911970023</v>
+        <v>2.753442293124734</v>
       </c>
       <c r="I11">
-        <v>3.070717510978248</v>
+        <v>3.022305615924377</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.23003574715904</v>
+        <v>20.17472902745254</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.73508560518307</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.50872486637444</v>
       </c>
       <c r="N11">
-        <v>6.772432204657568</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.98517846691542</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.76999150237117</v>
+        <v>6.860098597003833</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.11523398240939</v>
+      </c>
+      <c r="R11">
+        <v>12.24751590911004</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.84698961776218</v>
+        <v>26.51664227558921</v>
       </c>
       <c r="C12">
-        <v>23.43463021248167</v>
+        <v>22.64603016928385</v>
       </c>
       <c r="D12">
-        <v>4.726525779227427</v>
+        <v>4.679126838059704</v>
       </c>
       <c r="E12">
-        <v>9.892188533277899</v>
+        <v>9.570226073944903</v>
       </c>
       <c r="F12">
-        <v>37.91007997893077</v>
+        <v>31.87901821291866</v>
       </c>
       <c r="G12">
-        <v>2.069774423458655</v>
+        <v>9.634311205759268</v>
       </c>
       <c r="H12">
-        <v>4.089521184671468</v>
+        <v>4.058615094404149</v>
       </c>
       <c r="I12">
-        <v>3.082052385323671</v>
+        <v>3.019408802982736</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.13610317924949</v>
+        <v>18.99653336465519</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.84821055954392</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.63227757442965</v>
       </c>
       <c r="N12">
-        <v>6.180852776946219</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.30870194392785</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.53102799879102</v>
+        <v>6.238002427436443</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.39428968844439</v>
+      </c>
+      <c r="R12">
+        <v>12.17198719950641</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.18699461791702</v>
+        <v>26.01070479955806</v>
       </c>
       <c r="C13">
-        <v>23.42971269650662</v>
+        <v>22.67171034323185</v>
       </c>
       <c r="D13">
-        <v>4.682138445887726</v>
+        <v>4.740705478366492</v>
       </c>
       <c r="E13">
-        <v>10.5610205946571</v>
+        <v>10.23785595275214</v>
       </c>
       <c r="F13">
-        <v>36.22573978022933</v>
+        <v>30.56373009873813</v>
       </c>
       <c r="G13">
-        <v>2.071357451380676</v>
+        <v>9.189831659534468</v>
       </c>
       <c r="H13">
-        <v>5.453251724716758</v>
+        <v>5.46645280175513</v>
       </c>
       <c r="I13">
-        <v>3.015639691154847</v>
+        <v>2.975535780822563</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.9362822043977</v>
+        <v>18.11938213204709</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.24113371849594</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.909879886862</v>
       </c>
       <c r="N13">
-        <v>5.668826392305125</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.47315866302357</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.4020723761721</v>
+        <v>5.71740582755923</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.61845417458553</v>
+      </c>
+      <c r="R13">
+        <v>12.1928429542991</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.51619652048196</v>
+        <v>25.55979353786859</v>
       </c>
       <c r="C14">
-        <v>23.25936537627656</v>
+        <v>22.68334185434679</v>
       </c>
       <c r="D14">
-        <v>4.674415311578618</v>
+        <v>4.769477509936645</v>
       </c>
       <c r="E14">
-        <v>11.02587038389574</v>
+        <v>10.76326063289378</v>
       </c>
       <c r="F14">
-        <v>34.83494877396747</v>
+        <v>29.7464591246173</v>
       </c>
       <c r="G14">
-        <v>2.073476817859013</v>
+        <v>7.851999854827696</v>
       </c>
       <c r="H14">
-        <v>6.489142460588858</v>
+        <v>6.493827029180427</v>
       </c>
       <c r="I14">
-        <v>2.93533862427624</v>
+        <v>2.927301004426466</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.03500266268408</v>
+        <v>17.61614780711888</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.9196500941427</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.45671175530102</v>
       </c>
       <c r="N14">
-        <v>5.374364536614812</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.80495868297965</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.36679645489751</v>
+        <v>5.425798419283285</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.03727072848547</v>
+      </c>
+      <c r="R14">
+        <v>12.23847113411914</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.2517312445497</v>
+        <v>25.39659933580295</v>
       </c>
       <c r="C15">
-        <v>23.14066739472177</v>
+        <v>22.67867172717714</v>
       </c>
       <c r="D15">
-        <v>4.676970119944988</v>
+        <v>4.76624293157852</v>
       </c>
       <c r="E15">
-        <v>11.11456782530458</v>
+        <v>10.8938215884811</v>
       </c>
       <c r="F15">
-        <v>34.39213823325058</v>
+        <v>29.57897022735412</v>
       </c>
       <c r="G15">
-        <v>2.074503348822032</v>
+        <v>7.088373861224814</v>
       </c>
       <c r="H15">
-        <v>6.730388226559657</v>
+        <v>6.731675634989845</v>
       </c>
       <c r="I15">
-        <v>2.899767324937033</v>
+        <v>2.907644401300193</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.78063050449819</v>
+        <v>17.53154486806464</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.8785421907502</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.36130828806709</v>
       </c>
       <c r="N15">
-        <v>5.310196617438268</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.60486498981517</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.37508285650796</v>
+        <v>5.366459627345314</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.87775537285671</v>
+      </c>
+      <c r="R15">
+        <v>12.25773828883456</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40600026261655</v>
+        <v>24.91849737258849</v>
       </c>
       <c r="C16">
-        <v>22.3587447425266</v>
+        <v>22.48121935830929</v>
       </c>
       <c r="D16">
-        <v>4.693539668099186</v>
+        <v>4.6694939384134</v>
       </c>
       <c r="E16">
-        <v>10.7764940497279</v>
+        <v>10.77978757981579</v>
       </c>
       <c r="F16">
-        <v>33.63438316948681</v>
+        <v>29.93549083003292</v>
       </c>
       <c r="G16">
-        <v>2.079327712586094</v>
+        <v>3.516736014946915</v>
       </c>
       <c r="H16">
-        <v>6.538590241509573</v>
+        <v>6.523008130764209</v>
       </c>
       <c r="I16">
-        <v>2.733119831732324</v>
+        <v>2.810506313958157</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.60164706123713</v>
+        <v>17.94605772452541</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.27475345855675</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.54732397712627</v>
       </c>
       <c r="N16">
-        <v>5.286081881409407</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.30956426876695</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.51218600228404</v>
+        <v>5.381193896339326</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.742299729212</v>
+      </c>
+      <c r="R16">
+        <v>12.33061742380683</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.114744033022</v>
+        <v>24.74789875675862</v>
       </c>
       <c r="C17">
-        <v>21.84122256705244</v>
+        <v>22.23840188202472</v>
       </c>
       <c r="D17">
-        <v>4.707329630731942</v>
+        <v>4.606370768961385</v>
       </c>
       <c r="E17">
-        <v>10.24378468462734</v>
+        <v>10.35482155391534</v>
       </c>
       <c r="F17">
-        <v>33.81892680727978</v>
+        <v>30.52686404653527</v>
       </c>
       <c r="G17">
-        <v>2.0819165144489</v>
+        <v>2.164944986658687</v>
       </c>
       <c r="H17">
-        <v>5.813658545373561</v>
+        <v>5.785526556370812</v>
       </c>
       <c r="I17">
-        <v>2.64791071008659</v>
+        <v>2.758829330452806</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.95039328303659</v>
+        <v>18.4759383942669</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.72018004234148</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.88053123332951</v>
       </c>
       <c r="N17">
-        <v>5.411789346442644</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.44973647726943</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.63257870290047</v>
+        <v>5.534397865303881</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.93960398967962</v>
+      </c>
+      <c r="R17">
+        <v>12.3850581030316</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29755390392944</v>
+        <v>24.91511375371221</v>
       </c>
       <c r="C18">
-        <v>21.4925952577128</v>
+        <v>22.03318056393729</v>
       </c>
       <c r="D18">
-        <v>4.738771187760411</v>
+        <v>4.563087452587674</v>
       </c>
       <c r="E18">
-        <v>9.533305522879605</v>
+        <v>9.691123615839757</v>
       </c>
       <c r="F18">
-        <v>34.87385758698275</v>
+        <v>31.62015718710044</v>
       </c>
       <c r="G18">
-        <v>2.082762520537706</v>
+        <v>1.724622477366301</v>
       </c>
       <c r="H18">
-        <v>4.568036102073065</v>
+        <v>4.528291774551593</v>
       </c>
       <c r="I18">
-        <v>2.622054790171442</v>
+        <v>2.741935801889314</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.82430561878819</v>
+        <v>19.30080416929706</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.35800547516485</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.48157849442313</v>
       </c>
       <c r="N18">
-        <v>5.751316621299378</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.98817281079611</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.77817296661719</v>
+        <v>5.896602816044556</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.48141710701094</v>
+      </c>
+      <c r="R18">
+        <v>12.44229438185017</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.80177153969734</v>
+        <v>25.33236095949873</v>
       </c>
       <c r="C19">
-        <v>21.33044959979124</v>
+        <v>21.94247124121881</v>
       </c>
       <c r="D19">
-        <v>4.805272977419155</v>
+        <v>4.553689922878235</v>
       </c>
       <c r="E19">
-        <v>8.83317365864319</v>
+        <v>8.994736135585999</v>
       </c>
       <c r="F19">
-        <v>36.44033967712386</v>
+        <v>33.01773347553254</v>
       </c>
       <c r="G19">
-        <v>2.08211375272912</v>
+        <v>1.553041137424502</v>
       </c>
       <c r="H19">
-        <v>3.081184001149245</v>
+        <v>3.028703553857773</v>
       </c>
       <c r="I19">
-        <v>2.658133804151167</v>
+        <v>2.770292314274934</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.98989028920618</v>
+        <v>20.28698874665158</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.09363833379295</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.2386190096338</v>
       </c>
       <c r="N19">
-        <v>6.321327868547927</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.78422807861801</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.95868743425566</v>
+        <v>6.483177447777186</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.25019485006389</v>
+      </c>
+      <c r="R19">
+        <v>12.51708761517071</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.23114284555294</v>
+        <v>26.47391970881155</v>
       </c>
       <c r="C20">
-        <v>21.67048719380882</v>
+        <v>22.17438125244356</v>
       </c>
       <c r="D20">
-        <v>4.961155297746788</v>
+        <v>4.598822570340387</v>
       </c>
       <c r="E20">
-        <v>8.256478958411364</v>
+        <v>8.320547635879713</v>
       </c>
       <c r="F20">
-        <v>39.47430158932374</v>
+        <v>35.3462751345163</v>
       </c>
       <c r="G20">
-        <v>2.077209572011628</v>
+        <v>2.145111842332659</v>
       </c>
       <c r="H20">
-        <v>1.696131338932153</v>
+        <v>1.73324289626373</v>
       </c>
       <c r="I20">
-        <v>2.850158030813405</v>
+        <v>2.903709437529664</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.02167901694274</v>
+        <v>21.77723953910205</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.1182873318148</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.49136913977114</v>
       </c>
       <c r="N20">
-        <v>7.422234122404993</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.26330721468944</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.23016066748064</v>
+        <v>7.58552535681024</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.61983219467674</v>
+      </c>
+      <c r="R20">
+        <v>12.60002252393742</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.01049892563528</v>
+        <v>27.45703249430614</v>
       </c>
       <c r="C21">
-        <v>23.07799961814126</v>
+        <v>22.41101028094858</v>
       </c>
       <c r="D21">
-        <v>4.972240322752456</v>
+        <v>4.601503534483746</v>
       </c>
       <c r="E21">
-        <v>8.615521138529944</v>
+        <v>8.388960640719114</v>
       </c>
       <c r="F21">
-        <v>41.56892157126993</v>
+        <v>35.05705120188577</v>
       </c>
       <c r="G21">
-        <v>2.067769040436852</v>
+        <v>9.440888220335518</v>
       </c>
       <c r="H21">
-        <v>2.06739629639875</v>
+        <v>1.96845843960867</v>
       </c>
       <c r="I21">
-        <v>3.185862236942838</v>
+        <v>3.094105757088334</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.95720274204696</v>
+        <v>21.29106659857342</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.52466423188596</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.41175755673579</v>
       </c>
       <c r="N21">
-        <v>7.774915774425311</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.17193332392572</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>13.08268776019592</v>
+        <v>7.863935385235806</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.17295702838873</v>
+      </c>
+      <c r="R21">
+        <v>12.31183988913311</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.14849650395465</v>
+        <v>28.02183288734508</v>
       </c>
       <c r="C22">
-        <v>23.96042155222749</v>
+        <v>22.50031005688104</v>
       </c>
       <c r="D22">
-        <v>4.973867815453534</v>
+        <v>4.629366874388864</v>
       </c>
       <c r="E22">
-        <v>8.872179288532264</v>
+        <v>8.468583270322904</v>
       </c>
       <c r="F22">
-        <v>42.84959220063227</v>
+        <v>34.7130122268508</v>
       </c>
       <c r="G22">
-        <v>2.061733855148728</v>
+        <v>14.53705891728345</v>
       </c>
       <c r="H22">
-        <v>2.302615335493865</v>
+        <v>2.115816729085598</v>
       </c>
       <c r="I22">
-        <v>3.39617611589576</v>
+        <v>3.208972694400194</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.52136095458202</v>
+        <v>20.88230573509207</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.08172839042975</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.28512804346319</v>
       </c>
       <c r="N22">
-        <v>7.947780745090786</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.69865011905548</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.97771052892067</v>
+        <v>7.986726685352536</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.45737157459294</v>
+      </c>
+      <c r="R22">
+        <v>12.13433205715148</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.56951890078729</v>
+        <v>27.82039103444223</v>
       </c>
       <c r="C23">
-        <v>23.48134630899957</v>
+        <v>22.56737102776011</v>
       </c>
       <c r="D23">
-        <v>4.977766337156591</v>
+        <v>4.611049132115481</v>
       </c>
       <c r="E23">
-        <v>8.736468703165162</v>
+        <v>8.439080691291482</v>
       </c>
       <c r="F23">
-        <v>42.22139223863157</v>
+        <v>35.17689716774242</v>
       </c>
       <c r="G23">
-        <v>2.064903409503675</v>
+        <v>11.0232976101885</v>
       </c>
       <c r="H23">
-        <v>2.179226609074219</v>
+        <v>2.043945802131863</v>
       </c>
       <c r="I23">
-        <v>3.28150553436177</v>
+        <v>3.148480367580458</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.26328540609302</v>
+        <v>21.26742179101836</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.43673708025413</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.48516878667485</v>
       </c>
       <c r="N23">
-        <v>7.854735574822268</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.42752064504825</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>13.04258707721483</v>
+        <v>7.925827133044446</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.34846762912328</v>
+      </c>
+      <c r="R23">
+        <v>12.2402573918877</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.30737909763801</v>
+        <v>26.54331925527879</v>
       </c>
       <c r="C24">
-        <v>21.62229198762705</v>
+        <v>22.14118748888222</v>
       </c>
       <c r="D24">
-        <v>4.982721313221716</v>
+        <v>4.606536951432198</v>
       </c>
       <c r="E24">
-        <v>8.215564650080216</v>
+        <v>8.279530019357708</v>
       </c>
       <c r="F24">
-        <v>39.70739269963366</v>
+        <v>35.57135265599172</v>
       </c>
       <c r="G24">
-        <v>2.077121842062402</v>
+        <v>2.096897377119746</v>
       </c>
       <c r="H24">
-        <v>1.702818727653389</v>
+        <v>1.739407455172618</v>
       </c>
       <c r="I24">
-        <v>2.846583965789179</v>
+        <v>2.897334184918597</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.2090502627629</v>
+        <v>21.94833990568199</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.24817597370894</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.6198418925329</v>
       </c>
       <c r="N24">
-        <v>7.496547868420082</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.3527260902267</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>13.2743491477966</v>
+        <v>7.661640350047254</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.70767866244992</v>
+      </c>
+      <c r="R24">
+        <v>12.6256123462776</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.70082983475585</v>
+        <v>24.19838323335931</v>
       </c>
       <c r="C25">
-        <v>19.47953772144357</v>
+        <v>20.13037872989508</v>
       </c>
       <c r="D25">
-        <v>4.983729143393015</v>
+        <v>4.558212928522363</v>
       </c>
       <c r="E25">
-        <v>7.63991872400893</v>
+        <v>7.907936422731633</v>
       </c>
       <c r="F25">
-        <v>36.89389664410845</v>
+        <v>33.33093440554131</v>
       </c>
       <c r="G25">
-        <v>2.090658086776489</v>
+        <v>2.556019364915476</v>
       </c>
       <c r="H25">
-        <v>1.956639593967301</v>
+        <v>1.796009983123205</v>
       </c>
       <c r="I25">
-        <v>2.619853977982004</v>
+        <v>2.549424756286216</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.05697742955035</v>
+        <v>21.21998489219332</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.05999968373697</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.63317709668431</v>
       </c>
       <c r="N25">
-        <v>7.094233870370347</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.12147358994327</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.52601873111809</v>
+        <v>7.297956116588339</v>
       </c>
       <c r="Q25">
+        <v>14.5686064249047</v>
+      </c>
+      <c r="R25">
+        <v>12.89678909330472</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
